--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Kalyana\#_Email\Traveloka_DataAutomation_Dispatcher_Email\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE2EFB7-1ABC-4872-A92C-3ED4B9D391E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856703AD-1F36-409C-8C27-631F733D4AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,25 +189,25 @@
     <t>OrchestratorQueueName</t>
   </si>
   <si>
+    <t>RPA_Moon_SheetIdConfig</t>
+  </si>
+  <si>
+    <t>RPA_Moon_PathMasterFolder</t>
+  </si>
+  <si>
+    <t>RPA_Moon_PathMailTemplate</t>
+  </si>
+  <si>
+    <t>RPA_Moon_PathSaKey</t>
+  </si>
+  <si>
     <t>RPA_Moon_Cred_Gmail</t>
   </si>
   <si>
     <t>v-hans.davin@traveloka.com</t>
   </si>
   <si>
-    <t>[Dev] RPA_Moon_Email</t>
-  </si>
-  <si>
-    <t>[Dev] RPA_Moon_SheetIdConfig</t>
-  </si>
-  <si>
-    <t>[Dev] RPA_Moon_PathMasterFolder</t>
-  </si>
-  <si>
-    <t>[Dev] RPA_Moon_PathMailTemplate</t>
-  </si>
-  <si>
-    <t>[Dev] RPA_Moon_PathSaKey</t>
+    <t>RPA_Moon_Email</t>
   </si>
   <si>
     <t>SenderName</t>
@@ -593,7 +593,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -643,7 +643,7 @@
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -681,7 +681,7 @@
         <v>44</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
@@ -692,7 +692,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
@@ -703,7 +703,7 @@
         <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
         <v>48</v>
@@ -2926,7 +2926,7 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
@@ -2934,7 +2934,7 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
@@ -2942,7 +2942,7 @@
         <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
@@ -2950,7 +2950,7 @@
         <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
